--- a/兴平市数据.xlsx
+++ b/兴平市数据.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="166">
   <si>
     <t>企业名称</t>
   </si>
@@ -731,9 +731,6 @@
   </si>
   <si>
     <t>经脉冲式布袋除尘处理后经15米高排气筒排放。</t>
-  </si>
-  <si>
-    <t>ND</t>
   </si>
   <si>
     <t>挤抽车间</t>
@@ -2086,8 +2083,8 @@
   <sheetPr/>
   <dimension ref="A1:AG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7432,8 +7429,8 @@
         <v>39</v>
       </c>
       <c r="X58" s="26"/>
-      <c r="Y58" s="10" t="s">
-        <v>128</v>
+      <c r="Y58" s="10">
+        <v>0</v>
       </c>
       <c r="Z58" s="37">
         <v>16000</v>
@@ -7447,17 +7444,17 @@
       <c r="AC58" s="10">
         <v>300</v>
       </c>
-      <c r="AD58" s="34" t="e">
+      <c r="AD58" s="34">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="35" t="e">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF58" s="36" t="e">
         <f t="shared" si="12"/>
-        <v>#VALUE!</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AG58" s="13"/>
     </row>
@@ -7466,13 +7463,13 @@
         <v>124</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="D59" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9">
@@ -7559,13 +7556,13 @@
         <v>124</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>133</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9">
@@ -7649,16 +7646,16 @@
     </row>
     <row r="61" ht="46.8" spans="1:33">
       <c r="A61" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
@@ -7744,16 +7741,16 @@
     </row>
     <row r="62" ht="46.8" spans="1:33">
       <c r="A62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
@@ -7803,7 +7800,7 @@
         <v>6.86</v>
       </c>
       <c r="W62" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X62" s="27"/>
       <c r="Y62" s="10">
@@ -7828,16 +7825,16 @@
     </row>
     <row r="63" ht="46.8" spans="1:33">
       <c r="A63" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
@@ -7887,7 +7884,7 @@
         <v>6.86</v>
       </c>
       <c r="W63" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X63" s="27"/>
       <c r="Y63" s="10">
@@ -7912,16 +7909,16 @@
     </row>
     <row r="64" ht="46.8" spans="1:33">
       <c r="A64" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
@@ -8007,16 +8004,16 @@
     </row>
     <row r="65" ht="62.4" spans="1:33">
       <c r="A65" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="43" t="s">
+      <c r="D65" s="43" t="s">
         <v>142</v>
-      </c>
-      <c r="D65" s="43" t="s">
-        <v>143</v>
       </c>
       <c r="E65" s="8">
         <v>12</v>
@@ -8108,16 +8105,16 @@
     </row>
     <row r="66" ht="46.8" spans="1:33">
       <c r="A66" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>144</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>145</v>
       </c>
       <c r="E66" s="8">
         <v>12.3</v>
@@ -8205,10 +8202,10 @@
     </row>
     <row r="67" ht="46.8" spans="1:33">
       <c r="A67" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C67" s="46"/>
       <c r="D67" s="46" t="s">
@@ -8294,16 +8291,16 @@
     </row>
     <row r="68" ht="46.8" spans="1:33">
       <c r="A68" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="D68" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9">
@@ -8383,16 +8380,16 @@
     </row>
     <row r="69" ht="62.4" spans="1:33">
       <c r="A69" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="D69" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9">
@@ -8474,16 +8471,16 @@
     </row>
     <row r="70" ht="46.8" spans="1:33">
       <c r="A70" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9">
@@ -8565,16 +8562,16 @@
     </row>
     <row r="71" ht="78" spans="1:33">
       <c r="A71" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9">
@@ -8656,16 +8653,16 @@
     </row>
     <row r="72" ht="46.8" spans="1:33">
       <c r="A72" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9">
@@ -8747,16 +8744,16 @@
     </row>
     <row r="73" ht="62.4" spans="1:33">
       <c r="A73" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9">
@@ -8838,16 +8835,16 @@
     </row>
     <row r="74" ht="62.4" spans="1:33">
       <c r="A74" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9">
@@ -8929,13 +8926,13 @@
     </row>
     <row r="75" ht="46.8" spans="1:33">
       <c r="A75" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>70</v>
@@ -9020,13 +9017,13 @@
     </row>
     <row r="76" ht="46.8" spans="1:33">
       <c r="A76" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>70</v>
@@ -9111,13 +9108,13 @@
     </row>
     <row r="77" ht="46.8" spans="1:33">
       <c r="A77" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>78</v>
